--- a/Outputs/stacks over time.xlsx
+++ b/Outputs/stacks over time.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F41B93-8186-4572-8581-8FE235F90FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataHere" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Hand</t>
+  </si>
   <si>
     <t>Fish</t>
   </si>
@@ -30,15 +39,12 @@
   <si>
     <t>Raymond</t>
   </si>
-  <si>
-    <t>Hand</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +107,3906 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stacks over time for this session</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataHere!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dataHere!$B$2:$B$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.35</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>37.89</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35.49</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40.69</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41.69</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48.09</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45.29</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45.09</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41.49</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41.89</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41.09</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42.09</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41.43</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40.83</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>39.54</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>39.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41.54</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>38.08</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>37.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>36.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>36.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>36.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35.68</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>36.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36.08</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>33.08</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.78</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>26.58</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>28.48</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16.98</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15.57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15.97</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.37</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0786-4B64-BA48-78F7D9D4C6F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataHere!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scott</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dataHere!$C$2:$C$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.35</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35.35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28.21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21.91</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.21</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.01</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.81</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.81</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20.51</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>20.51</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19.91</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>29.91</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>31.81</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>30.91</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42.01</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42.21</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52.51</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>51.51</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>50.61</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>53.21</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>54.51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>54.51</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>54.81</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57.81</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>57.01</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57.01</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>52.61</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56.11</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>56.11</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>56.31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56.11</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57.91</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57.01</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>56.81</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>52.31</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>52.31</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>53.21</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>53.11</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>63.23</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>64.03</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>69.33</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>69.62</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>69.62</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>77.52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>78.42</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>78.42</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>78.62</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>72.72</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>73.12</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>69.92</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>70.92</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>70.72</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>71.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>71.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>73.09</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>73.69</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>86.69</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>89.39</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>89.39</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91.89</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>91.79</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>93.99</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>94.09</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>93.49</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>85.54</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>82.54</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>82.74</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>82.94</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>85.94</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>86.44</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>86.94</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>87.04</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>88.64</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>84.24</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>84.74</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>86.34</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>87.24</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>84.24</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>84.94</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>85.84</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>84.84</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>85.34</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>85.24</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>85.84</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>85.74</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>86.94</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>84.34</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>81.34</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>80.14</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>79.94</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>98.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0786-4B64-BA48-78F7D9D4C6F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataHere!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dataHere!$D$2:$D$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17.14</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17.34</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.34</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0786-4B64-BA48-78F7D9D4C6F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataHere!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dataHere!$E$2:$E$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.35</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18.55</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.55</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.87</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.27</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>17.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16.77</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16.77</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18.37</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>18.97</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>17.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0786-4B64-BA48-78F7D9D4C6F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataHere!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dataHere!$F$2:$F$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="151">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22.78</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22.08</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21.98</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22.65</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23.65</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>23.15</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>23.15</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>22.23</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0786-4B64-BA48-78F7D9D4C6F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="113">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="lt1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="lt1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>5</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="1">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13535025" cy="6848475"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,34 +4293,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,24 +4339,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C3">
         <v>20.3</v>
       </c>
       <c r="D3">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,7 +4373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -477,13 +4384,13 @@
         <v>17.3</v>
       </c>
       <c r="D5">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E5">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -491,16 +4398,16 @@
         <v>23.4</v>
       </c>
       <c r="C6">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D6">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E6">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -517,7 +4424,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -534,7 +4441,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -551,7 +4458,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -559,7 +4466,7 @@
         <v>21.85</v>
       </c>
       <c r="C10">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="D10">
         <v>6.95</v>
@@ -568,7 +4475,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -585,7 +4492,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -602,7 +4509,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -619,7 +4526,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -636,7 +4543,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -653,7 +4560,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -670,7 +4577,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -687,7 +4594,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -698,13 +4605,13 @@
         <v>14.55</v>
       </c>
       <c r="D18">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E18">
         <v>11.85</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -721,7 +4628,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -738,7 +4645,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -755,7 +4662,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -763,7 +4670,7 @@
         <v>18.55</v>
       </c>
       <c r="C22">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="D22">
         <v>9.15</v>
@@ -772,24 +4679,24 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.35</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C23">
         <v>18.05</v>
       </c>
       <c r="D23">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E23">
         <v>14.15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -806,7 +4713,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -817,35 +4724,35 @@
         <v>18.05</v>
       </c>
       <c r="D25">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E25">
         <v>13.85</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C26">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D26">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E26">
         <v>14.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C27">
         <v>19</v>
@@ -857,7 +4764,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -865,7 +4772,7 @@
         <v>16.5</v>
       </c>
       <c r="C28">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D28">
         <v>10.35</v>
@@ -874,7 +4781,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -882,7 +4789,7 @@
         <v>17.5</v>
       </c>
       <c r="C29">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D29">
         <v>10.15</v>
@@ -891,7 +4798,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -908,7 +4815,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -925,7 +4832,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -942,7 +4849,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -959,12 +4866,12 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C34">
         <v>23.6</v>
@@ -976,12 +4883,12 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C35">
         <v>22.2</v>
@@ -993,7 +4900,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1010,12 +4917,12 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C37">
         <v>22.1</v>
@@ -1027,12 +4934,12 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C38">
         <v>21.1</v>
@@ -1044,7 +4951,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1055,13 +4962,13 @@
         <v>20.3</v>
       </c>
       <c r="D39">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E39">
         <v>13.45</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1078,7 +4985,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1086,7 +4993,7 @@
         <v>15.7</v>
       </c>
       <c r="C41">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D41">
         <v>10.75</v>
@@ -1095,7 +5002,7 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1112,12 +5019,12 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C43">
         <v>27</v>
@@ -1129,12 +5036,12 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C44">
         <v>28.3</v>
@@ -1146,12 +5053,12 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C45">
         <v>27.9</v>
@@ -1163,7 +5070,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1180,7 +5087,7 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1191,13 +5098,13 @@
         <v>37.4</v>
       </c>
       <c r="D47">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E47">
         <v>13.15</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1214,7 +5121,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1231,7 +5138,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1248,7 +5155,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1265,12 +5172,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C52">
         <v>46.4</v>
@@ -1282,7 +5189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1296,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1316,7 +5223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1330,18 +5237,18 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="C56">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1350,12 +5257,12 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="C57">
         <v>39.25</v>
@@ -1364,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1384,15 +5291,15 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>32.55</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="C59">
-        <v>40.05</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1401,7 +5308,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1409,7 +5316,7 @@
         <v>32.35</v>
       </c>
       <c r="C60">
-        <v>39.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1418,7 +5325,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1435,7 +5342,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1443,7 +5350,7 @@
         <v>28.5</v>
       </c>
       <c r="C62">
-        <v>39.55</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1452,7 +5359,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1460,7 +5367,7 @@
         <v>27.7</v>
       </c>
       <c r="C63">
-        <v>40.55</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1469,7 +5376,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1486,7 +5393,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1494,7 +5401,7 @@
         <v>30.3</v>
       </c>
       <c r="C65">
-        <v>35.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1503,7 +5410,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1520,12 +5427,12 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C67">
         <v>36.75</v>
@@ -1537,7 +5444,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1554,15 +5461,15 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C69">
-        <v>36.05</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1571,7 +5478,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1579,16 +5486,16 @@
         <v>33.9</v>
       </c>
       <c r="C70">
-        <v>36.05</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>10.05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1596,21 +5503,21 @@
         <v>34.5</v>
       </c>
       <c r="C71">
-        <v>35.45</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>10.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C72">
         <v>35.35</v>
@@ -1622,7 +5529,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1639,7 +5546,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1647,16 +5554,16 @@
         <v>34.5</v>
       </c>
       <c r="C74">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1673,7 +5580,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1681,7 +5588,7 @@
         <v>32.1</v>
       </c>
       <c r="C76">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1690,7 +5597,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1707,7 +5614,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1715,7 +5622,7 @@
         <v>30.1</v>
       </c>
       <c r="C78">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1724,7 +5631,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1732,7 +5639,7 @@
         <v>29.9</v>
       </c>
       <c r="C79">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1741,7 +5648,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1758,7 +5665,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1775,7 +5682,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1783,7 +5690,7 @@
         <v>29.6</v>
       </c>
       <c r="C82">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1792,7 +5699,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1809,7 +5716,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1817,7 +5724,7 @@
         <v>29.3</v>
       </c>
       <c r="C84">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1826,7 +5733,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1843,7 +5750,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1851,7 +5758,7 @@
         <v>29.9</v>
       </c>
       <c r="C86">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1860,7 +5767,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1868,7 +5775,7 @@
         <v>29.1</v>
       </c>
       <c r="C87">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1877,7 +5784,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1894,7 +5801,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1902,7 +5809,7 @@
         <v>29.4</v>
       </c>
       <c r="C89">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1911,7 +5818,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1928,15 +5835,15 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C91">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1945,12 +5852,12 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C92">
         <v>33</v>
@@ -1962,12 +5869,12 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C93">
         <v>31.4</v>
@@ -1979,12 +5886,12 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>38.09</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="C94">
         <v>28.21</v>
@@ -1996,7 +5903,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2013,7 +5920,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2030,7 +5937,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2047,7 +5954,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2064,7 +5971,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2081,7 +5988,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2098,7 +6005,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2115,7 +6022,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2132,7 +6039,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2149,7 +6056,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2166,7 +6073,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2183,7 +6090,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2200,7 +6107,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2217,7 +6124,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2231,10 +6138,10 @@
         <v>10.45</v>
       </c>
       <c r="E108">
-        <v>17.35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2248,10 +6155,10 @@
         <v>10.45</v>
       </c>
       <c r="E109">
-        <v>17.15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2268,7 +6175,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2285,7 +6192,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2302,7 +6209,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2319,7 +6226,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2336,15 +6243,15 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>39.84</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="C115">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D115">
         <v>11.18</v>
@@ -2353,7 +6260,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2361,7 +6268,7 @@
         <v>41.04</v>
       </c>
       <c r="C116">
-        <v>17.81</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="D116">
         <v>11.18</v>
@@ -2370,15 +6277,15 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>40.84</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="C117">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="D117">
         <v>10.98</v>
@@ -2387,7 +6294,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2395,7 +6302,7 @@
         <v>41.04</v>
       </c>
       <c r="C118">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="D118">
         <v>10.78</v>
@@ -2404,7 +6311,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2421,7 +6328,7 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2438,12 +6345,12 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>37.88</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="C121">
         <v>15.91</v>
@@ -2452,15 +6359,15 @@
         <v>17.54</v>
       </c>
       <c r="E121">
-        <v>18.67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C122">
         <v>17.11</v>
@@ -2469,35 +6376,35 @@
         <v>17.34</v>
       </c>
       <c r="E122">
-        <v>18.67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C123">
         <v>17.21</v>
       </c>
       <c r="D123">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="E123">
-        <v>18.67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C124">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D124">
         <v>16.84</v>
@@ -2506,7 +6413,7 @@
         <v>18.27</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2514,38 +6421,38 @@
         <v>35.68</v>
       </c>
       <c r="C125">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D125">
         <v>16.64</v>
       </c>
       <c r="E125">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C126">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D126">
-        <v>16.44</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="E126">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C127">
         <v>17.11</v>
@@ -2554,10 +6461,10 @@
         <v>16.34</v>
       </c>
       <c r="E127">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2571,10 +6478,10 @@
         <v>14.34</v>
       </c>
       <c r="E128">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2588,10 +6495,10 @@
         <v>14.14</v>
       </c>
       <c r="E129">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2608,7 +6515,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2622,10 +6529,10 @@
         <v>13.94</v>
       </c>
       <c r="E131">
-        <v>17.67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>17.670000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2642,12 +6549,12 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17.58</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C133">
         <v>42.01</v>
@@ -2659,12 +6566,12 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17.58</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C134">
         <v>42.21</v>
@@ -2676,12 +6583,12 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17.58</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C135">
         <v>51.31</v>
@@ -2693,7 +6600,7 @@
         <v>17.37</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2710,7 +6617,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2727,7 +6634,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2741,10 +6648,10 @@
         <v>3.44</v>
       </c>
       <c r="E138">
-        <v>18.67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2761,7 +6668,7 @@
         <v>18.47</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2778,7 +6685,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2792,10 +6699,10 @@
         <v>3.34</v>
       </c>
       <c r="E141">
-        <v>18.17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2809,10 +6716,10 @@
         <v>3.24</v>
       </c>
       <c r="E142">
-        <v>18.17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2829,7 +6736,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2846,7 +6753,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2863,7 +6770,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2877,15 +6784,15 @@
         <v>6.54</v>
       </c>
       <c r="E146">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="C147">
         <v>56.11</v>
@@ -2897,7 +6804,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2914,7 +6821,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2931,7 +6838,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2945,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>17.92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2965,7 +6872,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2982,7 +6889,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2996,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="F153">
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3016,13 +6923,13 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F154">
         <v>21.8</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3036,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F155">
         <v>22.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3056,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>10.12</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F156">
         <v>22.5</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3082,7 +6989,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3102,7 +7009,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3122,7 +7029,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3142,7 +7049,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3162,7 +7069,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3182,7 +7089,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3202,7 +7109,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3222,7 +7129,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3242,7 +7149,7 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3262,7 +7169,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3270,7 +7177,7 @@
         <v>5.6</v>
       </c>
       <c r="C167">
-        <v>78.81999999999999</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3282,7 +7189,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3290,7 +7197,7 @@
         <v>6.1</v>
       </c>
       <c r="C168">
-        <v>78.81999999999999</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3302,7 +7209,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3322,7 +7229,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3342,7 +7249,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3362,7 +7269,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3382,7 +7289,7 @@
         <v>23.15</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3402,7 +7309,7 @@
         <v>23.15</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3422,7 +7329,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3442,7 +7349,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3450,7 +7357,7 @@
         <v>13.78</v>
       </c>
       <c r="C176">
-        <v>71.48999999999999</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3462,7 +7369,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3470,7 +7377,7 @@
         <v>13.28</v>
       </c>
       <c r="C177">
-        <v>71.48999999999999</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3482,7 +7389,7 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3502,7 +7409,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3522,7 +7429,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3542,7 +7449,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3562,12 +7469,12 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.279999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="C182">
         <v>89.39</v>
@@ -3582,12 +7489,12 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="C183">
         <v>89.39</v>
@@ -3602,12 +7509,12 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="C184">
         <v>91.89</v>
@@ -3622,15 +7529,15 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C185">
-        <v>91.79000000000001</v>
+        <v>91.79</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3642,7 +7549,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3650,7 +7557,7 @@
         <v>7.45</v>
       </c>
       <c r="C186">
-        <v>93.98999999999999</v>
+        <v>93.99</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3662,7 +7569,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3682,7 +7589,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3702,7 +7609,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3722,7 +7629,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3730,7 +7637,7 @@
         <v>7.95</v>
       </c>
       <c r="C190">
-        <v>93.48999999999999</v>
+        <v>93.49</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3742,7 +7649,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3750,7 +7657,7 @@
         <v>15.9</v>
       </c>
       <c r="C191">
-        <v>85.54000000000001</v>
+        <v>85.54</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3762,15 +7669,15 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C192">
-        <v>82.54000000000001</v>
+        <v>82.54</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3782,7 +7689,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3790,7 +7697,7 @@
         <v>18.7</v>
       </c>
       <c r="C193">
-        <v>82.73999999999999</v>
+        <v>82.74</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3802,7 +7709,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3822,7 +7729,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3842,7 +7749,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3862,7 +7769,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3870,7 +7777,7 @@
         <v>15.2</v>
       </c>
       <c r="C197">
-        <v>86.23999999999999</v>
+        <v>86.24</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3882,7 +7789,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3902,7 +7809,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3910,7 +7817,7 @@
         <v>14.4</v>
       </c>
       <c r="C199">
-        <v>87.04000000000001</v>
+        <v>87.04</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3922,7 +7829,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3942,7 +7849,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3950,7 +7857,7 @@
         <v>17.2</v>
       </c>
       <c r="C201">
-        <v>84.23999999999999</v>
+        <v>84.24</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3962,7 +7869,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3970,7 +7877,7 @@
         <v>16.7</v>
       </c>
       <c r="C202">
-        <v>84.73999999999999</v>
+        <v>84.74</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3982,7 +7889,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4002,7 +7909,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4010,7 +7917,7 @@
         <v>14.2</v>
       </c>
       <c r="C204">
-        <v>87.23999999999999</v>
+        <v>87.24</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -4022,7 +7929,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4030,7 +7937,7 @@
         <v>17.2</v>
       </c>
       <c r="C205">
-        <v>84.23999999999999</v>
+        <v>84.24</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -4042,7 +7949,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4062,7 +7969,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4082,12 +7989,12 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C208">
         <v>84.84</v>
@@ -4102,12 +8009,12 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C209">
         <v>85.34</v>
@@ -4122,7 +8029,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4130,7 +8037,7 @@
         <v>16.2</v>
       </c>
       <c r="C210">
-        <v>85.23999999999999</v>
+        <v>85.24</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -4142,7 +8049,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4162,7 +8069,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4170,7 +8077,7 @@
         <v>15.7</v>
       </c>
       <c r="C212">
-        <v>85.73999999999999</v>
+        <v>85.74</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -4182,7 +8089,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4202,12 +8109,12 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C214">
         <v>84.34</v>
@@ -4222,12 +8129,12 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C215">
         <v>81.34</v>
@@ -4242,7 +8149,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4262,7 +8169,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4282,7 +8189,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4304,5 +8211,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stacks over time.xlsx
+++ b/Outputs/stacks over time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CA061-DB8D-4ADC-AD85-95010A58A3AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855E20D-1192-4327-8EA2-3F644D9FE5F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3039,7 +3039,2926 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$B$2:$B$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.26</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24.36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29.46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31.26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31.16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.46</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31.36</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.76</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.26</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26.36</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27.36</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.98</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.78</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>28.08</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>25.83</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>33.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34.93</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34.33</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>30.33</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.33</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>28.33</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>31.33</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>31.13</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.03</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31.13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31.43</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>31.33</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>31.53</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>26.26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>28.46</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>28.66</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>30.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>30.76</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30.76</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26.61</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>26.01</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>26.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26.61</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>26.81</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.81</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27.01</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>25.21</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>25.31</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>24.31</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>30.71</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>30.91</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>30.71</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>25.91</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26.01</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>18.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19.34</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>16.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>19.29</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>15.19</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>18.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>19.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>19.64</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>15.54</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>18.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>17.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>24.89</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>25.89</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>25.89</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>27.29</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>26.84</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>24.94</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>24.14</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>23.54</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1D2-4831-AFAD-D30504D9F796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$C$2:$C$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.74</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28.94</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28.74</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.94</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.04</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.29</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.49</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>28.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.69</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>29.09</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.69</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.46</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.26</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25.61</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23.81</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>28.41</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.41</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.31</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30.51</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.41</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27.61</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.71</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>27.61</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>26.71</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>27.31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>27.21</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.78</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.18</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>32.18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29.28</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28.98</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>28.38</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>28.18</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.38</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24.88</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.38</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>19.88</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27.87</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>27.77</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>27.77</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>28.47</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28.87</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>28.87</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>29.27</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>26.97</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>26.37</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>23.67</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>21.67</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>16.47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12.74</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>12.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1D2-4831-AFAD-D30504D9F796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scott</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$D$2:$D$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35.04</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.44</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.44</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>52.32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52.32</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>51.26</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>50.96</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51.76</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.56</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52.26</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>52.56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>53.16</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>53.16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>52.36</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>52.56</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51.96</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>54.76</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>55.16</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55.16</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56.16</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>60.51</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>59.91</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59.71</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>59.11</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59.11</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58.91</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.91</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57.91</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>59.51</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>59.91</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>59.91</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>69.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>65.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>59.89</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>59.29</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>53.69</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>53.69</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>55.29</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.89</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>60.89</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.89</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>61.69</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>63.69</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>63.09</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>62.29</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>62.29</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>61.69</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>62.09</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>65.38</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>65.48</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>65.28</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>65.28</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>65.58</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>64.98</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>64.98</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61.44</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>62.64</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>68.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>67.84</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>68.64</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>67.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>67.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>67.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>70.59</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>70.39</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>70.39</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>68.62</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>73.12</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>77.92</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>78.72</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>74.22</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>75.42</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>75.42</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>79.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>77.42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>77.22</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>79.02</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>78.42</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>78.22</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>72.37</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>72.37</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>72.17</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>72.77</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>72.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>71.87</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>71.67</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>73.67</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>77.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>75.87</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>75.87</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>75.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C1D2-4831-AFAD-D30504D9F796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xavier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$E$2:$E$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="223"/>
+                <c:pt idx="51">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.66</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.46</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.71</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30.86</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19.55</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C1D2-4831-AFAD-D30504D9F796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1648517407"/>
+        <c:axId val="1648524479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1648517407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648524479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1648524479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648517407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3595,6 +6514,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3628,6 +7063,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C8D1F1-94EF-4ED4-817A-615BEDD50852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3923,8 +7394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,7 +7554,7 @@
         <v>21.236363636363635</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:J12" si="0">AVERAGE(C2:C12)</f>
+        <f t="shared" ref="H12" si="0">AVERAGE(C2:C12)</f>
         <v>18.763636363636365</v>
       </c>
     </row>
@@ -4299,7 +7770,7 @@
         <v>16.036363636363635</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I13:I76" si="3">AVERAGE(D13:D23)</f>
+        <f t="shared" ref="I23:I76" si="3">AVERAGE(D13:D23)</f>
         <v>20</v>
       </c>
     </row>
@@ -5086,7 +8557,7 @@
         <v>35.604545454545459</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J13:J76" si="4">AVERAGE(E43:E53)</f>
+        <f t="shared" ref="J53:J76" si="4">AVERAGE(E43:E53)</f>
         <v>20</v>
       </c>
     </row>

--- a/Outputs/stacks over time.xlsx
+++ b/Outputs/stacks over time.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9CA937-F69A-41E5-BC6E-F4DB31846462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8622E725-D096-46DF-8D9D-94550B320875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Hand</t>
   </si>
@@ -3571,7 +3582,3282 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$I$12:$I$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>21.759090909090908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.936363636363634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.11363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.077272727272724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.031818181818178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.977272727272723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.857272727272726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.782727272727271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.917272727272728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.938181818181821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.931818181818183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.943636363636365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.919090909090912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.885454545454547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.833636363636366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.757272727272731</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.770909090909093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.757272727272724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.690909090909088</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.701818181818179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.525454545454547</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.527272727272727</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.427272727272729</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.345454545454544</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.209090909090907</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.145454545454541</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.934545454545454</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.529090909090908</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.418181818181814</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.214545454545455</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.130909090909089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.010909090909088</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.890909090909091</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.77090909090909</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.650909090909092</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.530909090909091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.41090909090909</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.290909090909089</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.170909090909092</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.91090909090909</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.716363636363635</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.52181818181818</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.345454545454544</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.965454545454545</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.770909090909093</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.576363636363638</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.381818181818186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.20545454545455</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.965454545454548</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.91090909090909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.856363636363639</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.801818181818184</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.765454545454546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.660909090909094</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.547272727272727</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.433636363636364</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.206363636363633</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.388181818181817</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.560909090909089</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.724545454545456</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.88818181818182</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.051818181818188</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.215454545454552</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.492727272727276</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.047272727272727</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.324545454545454</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.583636363636366</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.556363636363638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18.529090909090911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.510909090909092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18.474545454545453</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.386363636363637</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.243636363636362</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.067272727272726</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.732727272727271</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.565454545454543</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.416363636363634</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.276363636363634</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24.13636363636363</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.987272727272728</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.256363636363634</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.577272727272728</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31.373636363636368</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32.115454545454547</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.857272727272729</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.526363636363641</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34.186363636363637</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.846363636363634</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35.506363636363631</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36.18454545454545</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36.591818181818176</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35.599090909090904</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34.588181818181816</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>34.147272727272721</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>33.758181818181818</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>32.300909090909094</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>31.624545454545455</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30.948181818181812</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30.25363636363636</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>29.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>29.042727272727276</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.535454545454549</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.028181818181814</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>27.489090909090905</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26.940909090909091</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26.827272727272728</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26.596363636363638</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>26.399090909090908</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26.192727272727268</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25.84363636363636</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>25.779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>25.579090909090908</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>25.34181818181818</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>25.122727272727275</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>24.612727272727273</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>24.189090909090911</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>23.756363636363634</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>23.323636363636364</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>22.381818181818179</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.594545454545454</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>20.986363636363635</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>20.101818181818182</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.304545454545455</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18.525454545454547</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>17.737272727272725</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17.197272727272725</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16.528181818181817</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15.07181818181818</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.924545454545454</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.710909090909093</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.433636363636362</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.138181818181819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$J$12:$J$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>20.327272727272728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.34090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.445454545454542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.945454545454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.081818181818186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.218181818181822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.222727272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.359090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.477272727272723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.595454545454544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.786363636363635</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.281818181818178</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.395454545454545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.509090909090908</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.404545454545453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.213636363636365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.163636363636364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.036363636363635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.854545454545455</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.518181818181819</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.231818181818182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.540909090909089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.163636363636364</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5909090909090917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7499999999999982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8272727272727263</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8954545454545464</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2590909090909079</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5727272727272723</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8363636363636369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9272727272727277</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0181818181818176</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.127272727272727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.218181818181819</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.054545454545455</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.881818181818181</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.654545454545454</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.786363636363637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.245454545454546</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.236363636363638</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.209090909090911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.436363636363637</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.663636363636364</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.86363636363636</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.790909090909089</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.718181818181819</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.709090909090907</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.627272727272729</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.945454545454549</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.63636363636364</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.745454545454546</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.290909090909093</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.418181818181818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.690909090909091</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.772727272727273</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18.394545454545455</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.957272727272727</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.440909090909091</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.924545454545456</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.462727272727275</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.019090909090909</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.575454545454546</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.831818181818182</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.088181818181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.224545454545455</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.433636363636365</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.175454545454544</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.7945454545454531</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.465454545454547</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.118181818181817</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.407272727272726</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.696363636363635</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.985454545454546</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.301818181818181</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.618181818181817</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.19090909090909</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15.754545454545452</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.318181818181817</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.422727272727272</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.490909090909089</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.604545454545455</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.981818181818184</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.140909090909091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.290909090909093</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.389090909090909</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.487272727272726</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.376363636363635</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.274545454545455</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.172727272727272</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9481818181818156</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7509090909090919</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.5263636363636355</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.4018181818181805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.4590909090909072</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.5254545454545454</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.625454545454545</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.7072727272727271</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.7827272727272723</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.8581818181818184</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9336363636363636</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.7545454545454531</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.5663636363636355</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.1445454545454536</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.9472727272727273</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.6772727272727277</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0427272727272729</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.4263636363636367</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.8890909090909087</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.351818181818182</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.8145454545454545</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.2954545454545454</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7945454545454544</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3118181818181818</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83818181818181803</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.38272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$K$12:$K$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>20.018181818181816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.036363636363635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.018181818181816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.981818181818177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.981818181818181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.009090909090908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.989090909090912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.683636363636364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.572727272727271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.389090909090903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.269090909090909</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.826363636363634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.788181818181819</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.704545454545453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.575454545454544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.511818181818178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.439090909090904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.439090909090908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.402727272727272</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.266363636363639</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.552727272727275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.223636363636363</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.903636363636366</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.583636363636369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.263636363636365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.264545454545456</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.676363636363639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.033636363636369</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.163636363636364</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.293636363636365</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.209090909090911</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.335454545454546</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.461818181818181</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5881818181818161</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.7145454545454513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.086363636363636</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2300000000000013</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.8245454545454551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6463636363636374</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4681818181818187</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.5227272727272725</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6590909090909074</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7863636363636353</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9136363636363631</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0409090909090901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.004545454545454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.9863636363636354</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.0227272727272725</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.0772727272727272</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.1045454545454554</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1318181818181818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0954545454545466</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.1045454545454554</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.9863636363636372</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.8681818181818191</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.7318181818181833</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.6363636363636376</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.2554545454545458</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.8654545454545461</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4754545454545465</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0854545454545459</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.6863636363636356</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.178181818181818</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.615454545454543</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.17090909090909</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.708181818181817</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.263636363636362</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.778181818181819</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.596363636363636</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.432727272727272</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.241818181818182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.050909090909091</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.869090909090909</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.778181818181819</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.58090909090909</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.392727272727273</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.222727272727271</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.052727272727271</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.882727272727271</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.712727272727271</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.524545454545454</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.345454545454544</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.166363636363638</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.9872727272727282</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.7536363636363657</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.6445454545454545</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.5354545454545434</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4081818181818164</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.2718181818181815</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.1354545454545431</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.9990909090909081</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.8809090909090891</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7809090909090894</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.6809090909090898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.5627272727272725</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.5081818181818178</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.9790909090909103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.066363636363635</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21.297272727272727</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24.86090909090909</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28.415454545454551</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>32.406363636363636</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.397272727272721</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40.406363636363629</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44.660909090909087</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>49.146363636363624</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>53.018181818181809</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56.889999999999993</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59.162727272727267</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>62.076363636363631</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>64.987272727272739</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67.98</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>70.536363636363646</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>72.959090909090904</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>75.372727272727261</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>77.55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>77.970909090909103</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>78.3809090909091</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>78.750000000000014</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>79.13727272727273</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>79.375454545454559</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>79.627272727272739</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>79.797272727272741</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>79.967272727272743</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.434545454545457</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.572727272727263</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>80.647272727272735</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>81.312727272727273</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>81.964545454545458</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>82.623636363636365</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>83.291818181818186</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>83.586363636363629</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>83.921818181818168</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>84.248181818181806</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>84.801818181818177</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>85.228181818181824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$L$12:$L$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>17.895454545454548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.686363636363637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.422727272727272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.304545454545455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.186363636363634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.068181818181817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.07181818181818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.039090909090906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.019090909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.018181818181816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.071818181818177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.025454545454544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.006363636363634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.982727272727274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.004545454545454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.617272727272727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.844545454545454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.042727272727273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.277272727272727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.693636363636362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.037272727272729</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.358181818181823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.697272727272733</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.440000000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.173636363636369</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.470909090909089</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.522727272727273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.765454545454539</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.100909090909092</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.327272727272728</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.380909090909093</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.43454545454545</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.510909090909088</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.950909090909086</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.023636363636363</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.06909090909091</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43.096363636363634</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.369090909090907</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.396363636363631</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.378181818181815</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.596363636363634</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.705454545454536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.600909090909084</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41.514545454545448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.064545454545453</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.614545454545457</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.182727272727277</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.060000000000009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.982727272727281</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.978181818181824</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.04636363636363</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.950909090909082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.09181818181818</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.437272727272731</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.782727272727278</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.128181818181819</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.182727272727274</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.228181818181817</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.037272727272725</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.650909090909092</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.969090909090909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.555454545454548</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.005454545454548</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20.24818181818182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.418181818181822</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.58818181818182</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.049090909090914</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.970909090909092</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.581818181818182</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.095454545454547</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.590909090909093</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.140909090909092</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.636363636363637</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.402727272727271</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.296363636363635</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.099090909090906</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.810909090909091</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.75090909090909</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.763636363636364</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.794545454545455</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.804545454545455</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.532727272727271</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.024545454545454</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.257272727272726</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.659090909090908</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.064545454545453</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.506363636363636</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.879090909090911</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.038181818181819</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.197272727272729</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.583636363636366</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.215454545454545</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.051818181818181</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15.660909090909088</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.488181818181816</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.233636363636363</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.960909090909091</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.424545454545456</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.418181818181818</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.039090909090909</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.432727272727274</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.026363636363635</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.292727272727273</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.740909090909092</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.936363636363637</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13.186363636363637</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.934545454545455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10.946363636363635</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.9763636363636348</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.9763636363636348</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.9763636363636348</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.1581818181818182</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.2127272727272729</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.6490909090909094</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$M$12:$M$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.383333333333329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.342857142857138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.287499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.455555555555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.68181818181818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.745454545454546</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.827272727272724</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.981818181818181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.054545454545455</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.163636363636364</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.272727272727277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.381818181818186</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.490909090909096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.390909090909091</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.336363636363636</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.281818181818178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.209090909090907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.154545454545456</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.136363636363637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.118181818181817</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.009090909090908</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.845454545454547</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.894545454545451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.90727272727273</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.887272727272727</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.872727272727271</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.849090909090908</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.75272727272727</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.656363636363633</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.481818181818181</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.421818181818182</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.185454545454547</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.976363636363637</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.130909090909089</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.212727272727271</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.276363636363637</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.603636363636362</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.985454545454544</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.358181818181819</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.785454545454545</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.326363636363634</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.867272727272724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.426363636363636</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.003636363636364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.226363636363633</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.558181818181819</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.976363636363633</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.062727272727273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.149090909090908</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.253636363636364</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24.226363636363637</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24.180909090909093</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.117272727272731</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.026363636363637</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.926363636363636</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23.79</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23.671818181818182</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.480909090909094</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.299090909090911</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.126363636363635</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.935454545454544</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.762727272727275</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.608181818181819</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.471818181818183</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.335454545454549</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.199090909090913</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.062727272727273</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21.926363636363636</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21.862727272727273</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21.717272727272729</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21.571818181818184</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.426363636363636</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.208181818181817</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20.512727272727275</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20.071818181818184</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.649090909090908</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.444545454545455</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18.495454545454546</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17.282727272727275</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.142727272727274</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.093636363636366</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.044545454545458</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12.190909090909093</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.1063636363636373</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.5481818181818179</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.2318181818181815</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.4681818181818183</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.82272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scott</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$N$12:$N$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.141666666666669</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.87857142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.893750000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.234545454545454</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.919090909090912</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.603636363636365</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.324545454545458</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.045454545454547</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.775454545454547</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.373636363636365</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.512727272727272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.379090909090905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.681818181818187</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.00272727272727</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.370909090909088</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.63909090909091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36.907272727272733</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.148181818181826</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41.389090909090918</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.793636363636367</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46.043636363636367</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47.475454545454546</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.916363636363641</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.116363636363637</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.343636363636364</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.652727272727269</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53.989090909090912</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55.361818181818187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>55.516363636363629</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55.670909090909092</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55.734545454545461</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55.830000000000013</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.689090909090901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>55.639090909090903</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55.589090909090913</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.602727272727272</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55.552727272727275</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55.657272727272726</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.707272727272724</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.939090909090901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.170909090909078</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>57.601818181818174</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.019090909090899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60.527272727272724</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62.162727272727267</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.798181818181817</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65.342727272727274</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>67.36</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>69.404545454545442</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71.467272727272714</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>73.457272727272724</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75.447272727272718</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.110909090909061</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77.129090909090891</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77.419999999999987</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77.592727272727274</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>77.765454545454546</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>77.938181818181818</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>77.63818181818182</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>77.174545454545466</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>76.738181818181829</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>76.941818181818192</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>77.26727272727274</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>77.983636363636364</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>78.463636363636354</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.652727272727262</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>80.778181818181807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>84.00181818181818</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>87.207272727272724</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.347272727272738</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>93.487272727272725</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>99.072727272727263</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>101.42363636363638</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>103.5109090909091</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>105.34454545454545</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108.15636363636362</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>111.04090909090907</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.82727272727271</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111.85272727272728</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>111.9436363636364</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>112.01636363636364</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>112.01636363636364</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>112.01636363636364</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>112.01636363636362</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>111.97999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>111.46545454545453</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>108.73454545454545</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>107.58181818181819</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>107.19909090909091</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>106.81636363636362</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>106.45181818181818</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>106.1781818181818</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>106.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>106.50181818181817</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>106.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>107.04454545454546</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>107.22090909090907</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>107.39727272727272</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>107.36090909090908</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>107.31545454545454</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>107.2609090909091</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>107.20636363636363</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>107.13363636363637</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>106.85818181818182</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>106.73818181818183</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>106.71818181818183</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>107.13818181818182</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>107.54727272727273</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>107.94727272727273</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>108.34727272727274</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>108.76545454545455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>avgData!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>avgData!$O$12:$O$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.7720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.343333333333334</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.437142857142858</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.2575</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.895555555555555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.805454545454547</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.587272727272728</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.402727272727272</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.209090909090911</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.82090909090909</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.596363636363638</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.444545454545455</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18.292727272727276</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.122727272727275</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.395454545454548</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.66818181818182</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.777272727272729</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.904545454545454</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.305454545454547</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.697272727272729</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13.122727272727273</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.487272727272726</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.842727272727272</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.164545454545454</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.404545454545454</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11.183636363636365</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.823636363636364</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.627272727272727</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.33090909090909</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.706363636363637</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.564545454545454</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.468181818181817</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.523636363636363</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.533636363636365</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17.540909090909089</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.584545454545456</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19.594545454545454</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.873636363636368</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.273636363636367</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.728181818181824</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.666363636363641</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20.559090909090912</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20.406363636363636</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20.256363636363634</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>20.77</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.210909090909091</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21.685454545454547</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>22.148181818181818</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>22.861818181818183</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>23.620909090909091</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>23.816363636363636</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>23.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24.110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>24.139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24.203636363636363</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>23.606363636363632</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>23.093636363636367</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>22.417272727272731</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21.868181818181821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0D89-41EB-A200-32110578C5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="940183471"/>
+        <c:axId val="940185967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="940183471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940185967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="940185967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940183471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4075,16 +7361,532 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8610601" cy="4352926"/>
+    <xdr:ext cx="8848726" cy="4610101"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4108,6 +7910,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35185B38-8503-4CB8-8D8B-49BC35693C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4396,15 +8234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +8268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4447,7 +8285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4464,7 +8302,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4481,7 +8319,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4498,7 +8336,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4515,7 +8353,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4532,7 +8370,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4549,7 +8387,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4566,7 +8404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4583,7 +8421,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4599,8 +8437,29 @@
       <c r="E11">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4616,8 +8475,24 @@
       <c r="E12">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>AVERAGE(B2:B12)</f>
+        <v>21.759090909090908</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:O12" si="0">AVERAGE(C2:C12)</f>
+        <v>20.327272727272728</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>20.018181818181816</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17.895454545454548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4633,8 +8508,24 @@
       <c r="E13">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" ref="I13:I76" si="1">AVERAGE(B3:B13)</f>
+        <v>21.936363636363634</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J76" si="2">AVERAGE(C3:C13)</f>
+        <v>20.34090909090909</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K76" si="3">AVERAGE(D3:D13)</f>
+        <v>20.036363636363635</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L76" si="4">AVERAGE(E3:E13)</f>
+        <v>17.686363636363637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4650,8 +8541,24 @@
       <c r="E14">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>22.11363636363636</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>20.445454545454542</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>20.018181818181816</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>17.422727272727272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4667,8 +8574,24 @@
       <c r="E15">
         <v>16.649999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>22.077272727272724</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>20.636363636363637</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>19.981818181818177</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>17.304545454545455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4684,8 +8607,24 @@
       <c r="E16">
         <v>16.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>22.031818181818178</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>20.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>19.981818181818181</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>17.186363636363634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4701,8 +8640,24 @@
       <c r="E17">
         <v>16.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>21.977272727272723</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>20.945454545454545</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>20.009090909090908</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>17.068181818181817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4718,8 +8673,24 @@
       <c r="E18">
         <v>17.989999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>21.857272727272726</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>21.081818181818186</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>19.989090909090912</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>17.07181818181818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4735,8 +8706,24 @@
       <c r="E19">
         <v>17.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>21.782727272727271</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>21.218181818181822</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>19.96</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>17.039090909090906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4752,8 +8739,24 @@
       <c r="E20">
         <v>16.79</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>21.917272727272728</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>21.222727272727273</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>19.84</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4769,8 +8772,24 @@
       <c r="E21">
         <v>16.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>21.938181818181821</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>21.359090909090909</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>19.683636363636364</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>17.019090909090909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4786,8 +8805,24 @@
       <c r="E22">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>21.931818181818183</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>21.477272727272723</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>19.572727272727271</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>17.018181818181816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4803,8 +8838,24 @@
       <c r="E23">
         <v>17.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>21.943636363636365</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>21.595454545454544</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>19.389090909090903</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>17.071818181818177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4820,8 +8871,24 @@
       <c r="E24">
         <v>17.190000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>21.919090909090912</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>21.786363636363635</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>19.269090909090909</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>17.025454545454544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4837,8 +8904,24 @@
       <c r="E25">
         <v>16.989999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>21.885454545454547</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>22.281818181818178</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>18.826363636363634</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>17.006363636363634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4857,8 +8940,28 @@
       <c r="F26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>21.833636363636366</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>22.395454545454545</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>18.788181818181819</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>16.982727272727274</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M13:M76" si="5">AVERAGE(F16:F26)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4877,8 +8980,28 @@
       <c r="F27">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>21.8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>22.509090909090908</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>18.704545454545453</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>17.004545454545454</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4897,8 +9020,28 @@
       <c r="F28">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>21.757272727272731</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>21.404545454545453</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>18.575454545454544</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>18.39</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>19.533333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4917,8 +9060,28 @@
       <c r="F29">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>21.770909090909093</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>20.272727272727273</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>18.511818181818178</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>19.617272727272727</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>19.524999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4937,8 +9100,28 @@
       <c r="F30">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>21.757272727272724</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>19.213636363636365</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>18.439090909090904</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>20.844545454545454</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>19.439999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4957,8 +9140,28 @@
       <c r="F31">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>21.690909090909088</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>18.163636363636364</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>18.439090909090908</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>22.042727272727273</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>19.383333333333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4977,8 +9180,28 @@
       <c r="F32">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>21.701818181818179</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>17.036363636363635</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>18.402727272727272</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>23.277272727272727</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>19.342857142857138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4997,8 +9220,28 @@
       <c r="F33">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>21.639999999999997</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>15.854545454545455</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>24.693636363636362</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>19.287499999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5017,8 +9260,28 @@
       <c r="F34">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>21.56</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>14.518181818181819</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>26.037272727272729</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>19.455555555555556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5037,8 +9300,28 @@
       <c r="F35">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>21.525454545454547</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>13.231818181818182</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>18.266363636363639</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>27.358181818181823</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5057,8 +9340,28 @@
       <c r="F36">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>21.527272727272727</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>11.540909090909089</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>18.552727272727275</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>28.697272727272733</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>19.68181818181818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5080,8 +9383,32 @@
       <c r="G37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>21.427272727272729</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>10.163636363636364</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>18.223636363636363</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>30.440000000000008</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>19.745454545454546</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N13:N76" si="6">AVERAGE(G27:G37)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5103,8 +9430,32 @@
       <c r="G38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>21.345454545454544</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999982</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>17.903636363636366</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>32.173636363636369</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>19.827272727272724</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5126,8 +9477,32 @@
       <c r="G39">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>21.272727272727273</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>8.5909090909090917</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>17.583636363636369</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>32.470909090909089</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>19.981818181818181</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>20.366666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5149,8 +9524,32 @@
       <c r="G40">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>21.209090909090907</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999982</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>17.263636363636365</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>32.522727272727273</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>20.054545454545455</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5172,8 +9571,32 @@
       <c r="G41">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>21.145454545454541</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>8.8272727272727263</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>16.880000000000003</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>32.765454545454539</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>20.163636363636364</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5195,8 +9618,32 @@
       <c r="G42">
         <v>12.45</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>20.934545454545454</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>8.8954545454545464</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>16.264545454545456</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>34.100909090909092</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>20.272727272727277</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>19.141666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5218,8 +9665,32 @@
       <c r="G43">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>20.759999999999998</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>8.5681818181818183</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>15.676363636363639</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>35.327272727272728</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>20.381818181818186</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>18.87857142857143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5241,8 +9712,32 @@
       <c r="G44">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>20.64</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>8.2590909090909079</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>15.033636363636369</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>36.380909090909093</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>20.490909090909096</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>18.893750000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5264,8 +9759,32 @@
       <c r="G45">
         <v>27.85</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>20.529090909090908</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>7.5727272727272723</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>14.163636363636364</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>37.43454545454545</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>20.390909090909091</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>19.888888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5287,8 +9806,32 @@
       <c r="G46">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>20.418181818181814</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>6.8363636363636369</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>13.293636363636365</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>38.510909090909088</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>20.336363636363636</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>20.664999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5310,8 +9853,32 @@
       <c r="G47">
         <v>26.93</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>20.214545454545455</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>7.9272727272727277</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>12.209090909090911</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>39.950909090909086</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>20.281818181818178</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>21.234545454545454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5333,8 +9900,32 @@
       <c r="G48">
         <v>27.53</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>20.130909090909089</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>9.0181818181818176</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>11.335454545454546</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>41.023636363636363</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>20.209090909090907</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>21.919090909090912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5356,8 +9947,32 @@
       <c r="G49">
         <v>27.53</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>20.010909090909088</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>10.127272727272727</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>10.461818181818181</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>42.06909090909091</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>20.18181818181818</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>22.603636363636365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5379,8 +9994,32 @@
       <c r="G50">
         <v>29.03</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>19.890909090909091</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>11.218181818181819</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>9.5881818181818161</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>43.096363636363634</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>20.154545454545456</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>23.324545454545458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5402,8 +10041,32 @@
       <c r="G51">
         <v>29.03</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>19.77090909090909</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>12.054545454545455</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>8.7145454545454513</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>44.369090909090907</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>20.136363636363637</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>24.045454545454547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5425,8 +10088,32 @@
       <c r="G52">
         <v>28.23</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>19.650909090909092</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>12.881818181818181</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>8.086363636363636</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>45.396363636363631</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>20.118181818181817</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>24.775454545454547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5448,8 +10135,32 @@
       <c r="G53">
         <v>30.03</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>19.530909090909091</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>13.654545454545454</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>7.69</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>45.378181818181815</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>26.373636363636365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5471,8 +10182,32 @@
       <c r="G54">
         <v>40.83</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>19.41090909090909</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>14.786363636363637</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>7.2300000000000013</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>44.596363636363634</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>20.009090909090908</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>28.512727272727272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5494,8 +10229,32 @@
       <c r="G55">
         <v>39.53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>19.290909090909089</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>16.245454545454546</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>6.8245454545454551</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>43.705454545454536</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>19.918181818181818</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>30.379090909090905</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5517,8 +10276,32 @@
       <c r="G56">
         <v>42.18</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>19.170909090909092</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>18.236363636363638</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>6.6463636363636374</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>42.600909090909084</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>19.845454545454547</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="6"/>
+        <v>31.681818181818187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5540,8 +10323,32 @@
       <c r="G57">
         <v>42.18</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>18.91090909090909</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>20.209090909090911</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>6.4681818181818187</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>41.514545454545448</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>19.894545454545451</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="6"/>
+        <v>33.00272727272727</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5563,8 +10370,32 @@
       <c r="G58">
         <v>41.98</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>18.716363636363635</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>20.436363636363637</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>6.5227272727272725</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>40.064545454545453</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>19.90727272727273</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="6"/>
+        <v>34.370909090909088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5586,8 +10417,32 @@
       <c r="G59">
         <v>41.48</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>18.52181818181818</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>20.663636363636364</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>6.6590909090909074</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>38.614545454545457</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>19.920000000000002</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>35.63909090909091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5609,8 +10464,32 @@
       <c r="G60">
         <v>41.48</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>18.345454545454544</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>20.90909090909091</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>6.7863636363636353</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>37.182727272727277</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>19.887272727272727</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>36.907272727272733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5632,8 +10511,32 @@
       <c r="G61">
         <v>53.68</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>18.16</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>20.86363636363636</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>6.9136363636363631</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>35.060000000000009</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>19.872727272727271</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>39.148181818181826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5655,8 +10558,32 @@
       <c r="G62">
         <v>53.68</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>17.965454545454545</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>20.790909090909089</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>7.0409090909090901</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>32.982727272727281</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>19.849090909090908</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="6"/>
+        <v>41.389090909090918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5678,8 +10605,32 @@
       <c r="G63">
         <v>54.68</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>17.770909090909093</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>20.718181818181819</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>7.004545454545454</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>30.978181818181824</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>19.75272727272727</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>43.793636363636367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5701,8 +10652,32 @@
       <c r="G64">
         <v>54.78</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>17.576363636363638</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>20.709090909090907</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>6.9863636363636354</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>29.04636363636363</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>19.656363636363633</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="6"/>
+        <v>46.043636363636367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5724,8 +10699,32 @@
       <c r="G65">
         <v>56.58</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>17.381818181818186</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>20.627272727272729</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>7.0227272727272725</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>27.950909090909082</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>19.559999999999999</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="6"/>
+        <v>47.475454545454546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5747,8 +10746,32 @@
       <c r="G66">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>17.20545454545455</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>20.272727272727273</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>27.09181818181818</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>19.481818181818181</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="6"/>
+        <v>48.916363636363641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5770,8 +10793,32 @@
       <c r="G67">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>17.02</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>19.945454545454549</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>7.0772727272727272</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>26.437272727272731</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>19.421818181818182</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="6"/>
+        <v>50.116363636363637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5793,8 +10840,32 @@
       <c r="G68">
         <v>55.68</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>16.965454545454548</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>19.63636363636364</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>7.1045454545454554</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>25.782727272727278</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>19.185454545454547</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="6"/>
+        <v>51.343636363636364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5816,8 +10887,32 @@
       <c r="G69">
         <v>56.38</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>16.91090909090909</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>19.2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>7.1318181818181818</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>25.128181818181819</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>18.976363636363637</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="6"/>
+        <v>52.652727272727269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5839,8 +10934,32 @@
       <c r="G70">
         <v>56.18</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>16.856363636363639</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>18.745454545454546</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>7.0954545454545466</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>24.182727272727274</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>19.130909090909089</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="6"/>
+        <v>53.989090909090912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5862,8 +10981,32 @@
       <c r="G71">
         <v>56.58</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>16.801818181818184</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>18.290909090909093</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>7.1045454545454554</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>23.228181818181817</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>19.212727272727271</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="6"/>
+        <v>55.361818181818187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5885,8 +11028,32 @@
       <c r="G72">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>16.765454545454546</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>18.418181818181818</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>6.9863636363636372</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>23.037272727272725</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>19.276363636363637</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="6"/>
+        <v>55.516363636363629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5908,8 +11075,32 @@
       <c r="G73">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>16.660909090909094</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>18.545454545454547</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>6.8681818181818191</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>22.650909090909092</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>19.603636363636362</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="6"/>
+        <v>55.670909090909092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5931,8 +11122,32 @@
       <c r="G74">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>16.547272727272727</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>18.690909090909091</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>6.7318181818181833</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>22.31</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>19.985454545454544</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="6"/>
+        <v>55.734545454545461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5954,8 +11169,32 @@
       <c r="G75">
         <v>55.83</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>16.433636363636364</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>18.772727272727273</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>6.6363636363636376</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>21.969090909090909</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="5"/>
+        <v>20.358181818181819</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="6"/>
+        <v>55.830000000000013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5977,8 +11216,32 @@
       <c r="G76">
         <v>55.03</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>16.319999999999997</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>18.394545454545455</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>7.2554545454545458</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>21.555454545454548</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="5"/>
+        <v>20.785454545454545</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="6"/>
+        <v>55.689090909090901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6000,8 +11263,32 @@
       <c r="G77">
         <v>54.83</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" ref="I77:I140" si="7">AVERAGE(B67:B77)</f>
+        <v>16.206363636363633</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J140" si="8">AVERAGE(C67:C77)</f>
+        <v>17.957272727272727</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K140" si="9">AVERAGE(D67:D77)</f>
+        <v>7.8654545454545461</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ref="L77:L140" si="10">AVERAGE(E67:E77)</f>
+        <v>21.005454545454548</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77:M140" si="11">AVERAGE(F67:F77)</f>
+        <v>21.326363636363634</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77:N140" si="12">AVERAGE(G67:G77)</f>
+        <v>55.639090909090903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6023,8 +11310,32 @@
       <c r="G78">
         <v>54.83</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>16.388181818181817</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>17.440909090909091</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="9"/>
+        <v>8.4754545454545465</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="10"/>
+        <v>20.24818181818182</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>21.867272727272724</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="12"/>
+        <v>55.589090909090913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6046,8 +11357,32 @@
       <c r="G79">
         <v>55.83</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>16.560909090909089</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>16.924545454545456</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="9"/>
+        <v>9.0854545454545459</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>19.418181818181822</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>22.426363636363636</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="12"/>
+        <v>55.602727272727272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6069,8 +11404,32 @@
       <c r="G80">
         <v>55.83</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>16.724545454545456</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>16.462727272727275</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>9.6863636363636356</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>18.58818181818182</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>23.003636363636364</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="12"/>
+        <v>55.552727272727275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6092,8 +11451,32 @@
       <c r="G81">
         <v>57.33</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>16.88818181818182</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>16.019090909090909</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>10.178181818181818</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>18.049090909090914</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>23.226363636363633</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="12"/>
+        <v>55.657272727272726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6115,8 +11498,32 @@
       <c r="G82">
         <v>57.13</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>17.051818181818188</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>15.575454545454546</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="9"/>
+        <v>10.615454545454543</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="10"/>
+        <v>17.510000000000002</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>23.558181818181819</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="12"/>
+        <v>55.707272727272724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6138,8 +11545,32 @@
       <c r="G83">
         <v>57.93</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>17.215454545454552</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="8"/>
+        <v>14.831818181818182</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="9"/>
+        <v>11.17090909090909</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="10"/>
+        <v>16.970909090909092</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>23.889999999999997</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="12"/>
+        <v>55.939090909090901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6161,8 +11592,32 @@
       <c r="G84">
         <v>57.93</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>17.492727272727276</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="8"/>
+        <v>14.088181818181818</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="9"/>
+        <v>11.708181818181817</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="10"/>
+        <v>16.581818181818182</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>23.976363636363633</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="12"/>
+        <v>56.170909090909078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6184,8 +11639,32 @@
       <c r="G85">
         <v>71.12</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>17.77</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="8"/>
+        <v>12.224545454545455</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="9"/>
+        <v>12.263636363636362</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="10"/>
+        <v>16.095454545454547</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>24.062727272727273</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="12"/>
+        <v>57.601818181818174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6207,8 +11686,32 @@
       <c r="G86">
         <v>71.42</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>18.047272727272727</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="8"/>
+        <v>10.433636363636365</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="9"/>
+        <v>12.778181818181819</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="10"/>
+        <v>15.590909090909093</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>24.149090909090908</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="12"/>
+        <v>59.019090909090899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6230,8 +11733,32 @@
       <c r="G87">
         <v>71.62</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>18.324545454545454</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="8"/>
+        <v>9.175454545454544</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="9"/>
+        <v>12.596363636363636</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="10"/>
+        <v>15.140909090909092</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>24.253636363636364</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="12"/>
+        <v>60.527272727272724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6253,8 +11780,32 @@
       <c r="G88">
         <v>72.819999999999993</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>18.583636363636366</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="8"/>
+        <v>9.7945454545454531</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="9"/>
+        <v>12.432727272727272</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="10"/>
+        <v>14.636363636363637</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>24.226363636363637</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="12"/>
+        <v>62.162727272727267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6276,8 +11827,32 @@
       <c r="G89">
         <v>72.819999999999993</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>18.556363636363638</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="8"/>
+        <v>10.465454545454547</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="9"/>
+        <v>12.241818181818182</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="10"/>
+        <v>14.402727272727271</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>24.180909090909093</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="12"/>
+        <v>63.798181818181817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6299,8 +11874,32 @@
       <c r="G90">
         <v>72.819999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>18.529090909090911</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="8"/>
+        <v>11.118181818181817</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="9"/>
+        <v>12.050909090909091</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="10"/>
+        <v>14.296363636363635</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>24.117272727272731</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="12"/>
+        <v>65.342727272727274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6322,8 +11921,32 @@
       <c r="G91">
         <v>78.02</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>18.510909090909092</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="8"/>
+        <v>11.407272727272726</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="9"/>
+        <v>11.869090909090909</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="10"/>
+        <v>14.099090909090906</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>24.026363636363637</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="12"/>
+        <v>67.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6348,8 +11971,36 @@
       <c r="H92">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>18.474545454545453</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="8"/>
+        <v>11.696363636363635</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="9"/>
+        <v>11.778181818181819</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="10"/>
+        <v>13.810909090909091</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>23.926363636363636</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="12"/>
+        <v>69.404545454545442</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ref="O77:O140" si="13">AVERAGE(H82:H92)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6374,8 +12025,36 @@
       <c r="H93">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>18.386363636363637</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="8"/>
+        <v>11.985454545454546</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="9"/>
+        <v>11.58090909090909</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="10"/>
+        <v>13.75090909090909</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>23.79</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="12"/>
+        <v>71.467272727272714</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="13"/>
+        <v>9.7149999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6400,8 +12079,36 @@
       <c r="H94">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>18.243636363636362</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="8"/>
+        <v>12.301818181818181</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="9"/>
+        <v>11.392727272727273</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="10"/>
+        <v>13.763636363636364</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>23.671818181818182</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="12"/>
+        <v>73.457272727272724</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="13"/>
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6426,8 +12133,36 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>19.067272727272726</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>12.618181818181817</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="9"/>
+        <v>11.222727272727271</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="10"/>
+        <v>13.794545454545455</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>23.480909090909094</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="12"/>
+        <v>75.447272727272718</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="13"/>
+        <v>7.2149999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6452,8 +12187,36 @@
       <c r="H96">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="8"/>
+        <v>14.19090909090909</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="9"/>
+        <v>11.052727272727271</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="10"/>
+        <v>13.804545454545455</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>23.299090909090911</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="12"/>
+        <v>76.110909090909061</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="13"/>
+        <v>9.7720000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6478,8 +12241,36 @@
       <c r="H97">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>20.732727272727271</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="8"/>
+        <v>15.754545454545452</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="9"/>
+        <v>10.882727272727271</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="10"/>
+        <v>13.532727272727271</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>23.126363636363635</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="12"/>
+        <v>77.129090909090891</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="13"/>
+        <v>11.343333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6504,8 +12295,36 @@
       <c r="H98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>21.565454545454543</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="8"/>
+        <v>17.318181818181817</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="9"/>
+        <v>10.712727272727271</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="10"/>
+        <v>14.024545454545454</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>22.935454545454544</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="12"/>
+        <v>77.419999999999987</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="13"/>
+        <v>12.437142857142858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6530,8 +12349,36 @@
       <c r="H99">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>22.416363636363634</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="8"/>
+        <v>17.422727272727272</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="9"/>
+        <v>10.524545454545454</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="10"/>
+        <v>14.257272727272726</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>22.762727272727275</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="12"/>
+        <v>77.592727272727274</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="13"/>
+        <v>13.2575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6556,8 +12403,36 @@
       <c r="H100">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>23.276363636363634</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="8"/>
+        <v>17.490909090909089</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="9"/>
+        <v>10.345454545454544</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="10"/>
+        <v>14.489999999999998</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>22.608181818181819</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="12"/>
+        <v>77.765454545454546</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="13"/>
+        <v>13.895555555555555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6582,8 +12457,36 @@
       <c r="H101">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>24.13636363636363</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="8"/>
+        <v>17.604545454545455</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="9"/>
+        <v>10.166363636363638</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="10"/>
+        <v>14.659090909090908</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>22.471818181818183</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="12"/>
+        <v>77.938181818181818</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="13"/>
+        <v>14.406000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6608,8 +12511,36 @@
       <c r="H102">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>24.987272727272728</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="8"/>
+        <v>17.981818181818184</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="9"/>
+        <v>9.9872727272727282</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="10"/>
+        <v>15.064545454545453</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>22.335454545454549</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="12"/>
+        <v>77.63818181818182</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="13"/>
+        <v>14.805454545454547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6634,8 +12565,36 @@
       <c r="H103">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="7"/>
+        <v>27.256363636363634</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="8"/>
+        <v>17.140909090909091</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="9"/>
+        <v>9.7536363636363657</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="10"/>
+        <v>15.506363636363636</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>22.199090909090913</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="12"/>
+        <v>77.174545454545466</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="13"/>
+        <v>15.587272727272728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6660,8 +12619,36 @@
       <c r="H104">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="7"/>
+        <v>29.577272727272728</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="8"/>
+        <v>16.290909090909093</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="9"/>
+        <v>9.6445454545454545</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="10"/>
+        <v>15.72</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>22.062727272727273</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="12"/>
+        <v>76.738181818181829</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="13"/>
+        <v>16.402727272727272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6686,8 +12673,36 @@
       <c r="H105">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="7"/>
+        <v>31.373636363636368</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="8"/>
+        <v>15.389090909090909</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="9"/>
+        <v>9.5354545454545434</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="10"/>
+        <v>15.879090909090911</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>21.926363636363636</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="12"/>
+        <v>76.941818181818192</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="13"/>
+        <v>17.209090909090911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6712,8 +12727,36 @@
       <c r="H106">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>32.115454545454547</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="8"/>
+        <v>14.487272727272726</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="9"/>
+        <v>9.4081818181818164</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="10"/>
+        <v>16.038181818181819</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>21.862727272727273</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="12"/>
+        <v>77.26727272727274</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="13"/>
+        <v>18.82090909090909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6738,8 +12781,36 @@
       <c r="H107">
         <v>17.53</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="7"/>
+        <v>32.857272727272729</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="8"/>
+        <v>13.376363636363635</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="9"/>
+        <v>9.2718181818181815</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="10"/>
+        <v>16.197272727272729</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>21.717272727272729</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="12"/>
+        <v>77.983636363636364</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="13"/>
+        <v>18.596363636363638</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6764,8 +12835,36 @@
       <c r="H108">
         <v>17.53</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="7"/>
+        <v>33.526363636363641</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="8"/>
+        <v>12.274545454545455</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="9"/>
+        <v>9.1354545454545431</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="10"/>
+        <v>16.583636363636366</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>21.571818181818184</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="12"/>
+        <v>78.463636363636354</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="13"/>
+        <v>18.444545454545455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6790,8 +12889,36 @@
       <c r="H109">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="7"/>
+        <v>34.186363636363637</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="8"/>
+        <v>11.172727272727272</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="9"/>
+        <v>8.9990909090909081</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="10"/>
+        <v>16.269999999999996</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>21.426363636363636</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="12"/>
+        <v>79.652727272727262</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="13"/>
+        <v>18.292727272727276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6816,8 +12943,36 @@
       <c r="H110">
         <v>17.13</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="7"/>
+        <v>34.846363636363634</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="8"/>
+        <v>9.9481818181818156</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="9"/>
+        <v>8.8809090909090891</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="10"/>
+        <v>16.215454545454545</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>21.208181818181817</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="12"/>
+        <v>80.778181818181807</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="13"/>
+        <v>18.122727272727275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6842,8 +12997,36 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="7"/>
+        <v>35.506363636363631</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="8"/>
+        <v>8.7509090909090919</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="9"/>
+        <v>8.7809090909090894</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="10"/>
+        <v>16.051818181818181</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>20.512727272727275</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="12"/>
+        <v>84.00181818181818</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="13"/>
+        <v>16.395454545454548</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6868,8 +13051,36 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="7"/>
+        <v>36.18454545454545</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="8"/>
+        <v>7.5263636363636355</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="9"/>
+        <v>8.6809090909090898</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="10"/>
+        <v>15.660909090909088</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>20.071818181818184</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="12"/>
+        <v>87.207272727272724</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="13"/>
+        <v>14.66818181818182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6894,8 +13105,36 @@
       <c r="H113">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="7"/>
+        <v>36.591818181818176</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="8"/>
+        <v>6.4018181818181805</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="9"/>
+        <v>8.5627272727272725</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="10"/>
+        <v>15.488181818181816</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>19.649090909090908</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="12"/>
+        <v>90.347272727272738</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="13"/>
+        <v>14.777272727272729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6920,8 +13159,36 @@
       <c r="H114">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>35.599090909090904</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="8"/>
+        <v>6.4590909090909072</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="9"/>
+        <v>8.5081818181818178</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="10"/>
+        <v>15.233636363636363</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>19.444545454545455</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="12"/>
+        <v>93.487272727272725</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="13"/>
+        <v>14.904545454545454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6946,8 +13213,36 @@
       <c r="H115">
         <v>11.81</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="7"/>
+        <v>34.588181818181816</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="8"/>
+        <v>6.5254545454545454</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="9"/>
+        <v>9.9790909090909103</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="10"/>
+        <v>14.960909090909091</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>18.495454545454546</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="12"/>
+        <v>96.6</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="13"/>
+        <v>14.305454545454547</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6972,8 +13267,36 @@
       <c r="H116">
         <v>11.61</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>34.147272727272721</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="8"/>
+        <v>6.625454545454545</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="9"/>
+        <v>12.022727272727273</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="10"/>
+        <v>14.424545454545456</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>17.282727272727275</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="12"/>
+        <v>99.072727272727263</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="13"/>
+        <v>13.697272727272729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6998,8 +13321,36 @@
       <c r="H117">
         <v>11.41</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="7"/>
+        <v>33.758181818181818</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="8"/>
+        <v>6.7072727272727271</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="9"/>
+        <v>14.066363636363635</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="10"/>
+        <v>13.87</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>16.142727272727274</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="12"/>
+        <v>101.42363636363638</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="13"/>
+        <v>13.122727272727273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7024,8 +13375,36 @@
       <c r="H118">
         <v>10.54</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>32.934545454545457</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="8"/>
+        <v>6.7827272727272723</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="9"/>
+        <v>17.681818181818183</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="10"/>
+        <v>12.418181818181818</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>15.093636363636366</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="12"/>
+        <v>103.5109090909091</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="13"/>
+        <v>12.487272727272726</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7050,8 +13429,36 @@
       <c r="H119">
         <v>10.44</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="7"/>
+        <v>32.300909090909094</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="8"/>
+        <v>6.8581818181818184</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="9"/>
+        <v>21.297272727272727</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="10"/>
+        <v>11.039090909090909</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="11"/>
+        <v>14.044545454545458</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="12"/>
+        <v>105.34454545454545</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="13"/>
+        <v>11.842727272727272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7076,8 +13483,36 @@
       <c r="H120">
         <v>9.8699999999999992</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" si="7"/>
+        <v>31.624545454545455</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="8"/>
+        <v>6.9336363636363636</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="9"/>
+        <v>24.86090909090909</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="10"/>
+        <v>11.432727272727274</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="11"/>
+        <v>12.190909090909093</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="12"/>
+        <v>108.15636363636362</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="13"/>
+        <v>11.164545454545454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7102,8 +13537,36 @@
       <c r="H121">
         <v>8.77</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="7"/>
+        <v>30.948181818181812</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="8"/>
+        <v>6.7545454545454531</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="9"/>
+        <v>28.415454545454551</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="10"/>
+        <v>12.026363636363635</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="11"/>
+        <v>10.41</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="12"/>
+        <v>111.04090909090907</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="13"/>
+        <v>10.404545454545454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7128,8 +13591,36 @@
       <c r="H122">
         <v>8.57</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="7"/>
+        <v>30.25363636363636</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="8"/>
+        <v>6.5663636363636355</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="9"/>
+        <v>32.406363636363636</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="10"/>
+        <v>12.292727272727273</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="11"/>
+        <v>9.1063636363636373</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="12"/>
+        <v>111.82727272727271</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="13"/>
+        <v>11.183636363636365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7154,8 +13645,36 @@
       <c r="H123">
         <v>18.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="7"/>
+        <v>29.549999999999997</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="8"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="9"/>
+        <v>36.397272727272721</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="10"/>
+        <v>12.740909090909092</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="11"/>
+        <v>7.5481818181818179</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="12"/>
+        <v>111.85272727272728</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="13"/>
+        <v>12.823636363636364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7180,8 +13699,36 @@
       <c r="H124">
         <v>17.84</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="7"/>
+        <v>29.042727272727276</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="8"/>
+        <v>6.1445454545454536</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="9"/>
+        <v>40.406363636363629</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="10"/>
+        <v>12.936363636363637</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="11"/>
+        <v>5.99</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="12"/>
+        <v>111.9436363636364</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="13"/>
+        <v>12.627272727272727</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7206,8 +13753,36 @@
       <c r="H125">
         <v>16.739999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" si="7"/>
+        <v>28.535454545454549</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="8"/>
+        <v>5.9472727272727273</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="9"/>
+        <v>44.660909090909087</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="10"/>
+        <v>13.186363636363637</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="11"/>
+        <v>4.2318181818181815</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="12"/>
+        <v>112.01636363636364</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="13"/>
+        <v>12.33090909090909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7232,8 +13807,36 @@
       <c r="H126">
         <v>15.94</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" si="7"/>
+        <v>28.028181818181814</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="8"/>
+        <v>5.6772727272727277</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="9"/>
+        <v>49.146363636363624</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="10"/>
+        <v>11.934545454545455</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="11"/>
+        <v>3.2181818181818187</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="12"/>
+        <v>112.01636363636364</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="13"/>
+        <v>12.706363636363637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7258,8 +13861,36 @@
       <c r="H127">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="7"/>
+        <v>27.489090909090905</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="8"/>
+        <v>5.0427272727272729</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="9"/>
+        <v>53.018181818181809</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="10"/>
+        <v>10.946363636363635</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="11"/>
+        <v>2.4681818181818183</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="12"/>
+        <v>112.01636363636364</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="13"/>
+        <v>13.564545454545454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7284,8 +13915,36 @@
       <c r="H128">
         <v>21.35</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" si="7"/>
+        <v>26.940909090909091</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="8"/>
+        <v>4.4263636363636367</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="9"/>
+        <v>56.889999999999993</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="10"/>
+        <v>9.9763636363636348</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="11"/>
+        <v>1.6454545454545455</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="12"/>
+        <v>112.01636363636362</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="13"/>
+        <v>14.468181818181817</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7310,8 +13969,36 @@
       <c r="H129">
         <v>22.15</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" si="7"/>
+        <v>26.827272727272728</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="8"/>
+        <v>3.8890909090909087</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="9"/>
+        <v>59.162727272727267</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="10"/>
+        <v>9.9763636363636348</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="11"/>
+        <v>0.82272727272727275</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="12"/>
+        <v>111.97999999999998</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="13"/>
+        <v>15.523636363636363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7336,8 +14023,36 @@
       <c r="H130">
         <v>21.55</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="shared" si="7"/>
+        <v>26.596363636363638</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="8"/>
+        <v>3.351818181818182</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="9"/>
+        <v>62.076363636363631</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="10"/>
+        <v>9.9763636363636348</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="12"/>
+        <v>111.46545454545453</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="13"/>
+        <v>16.533636363636365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7362,8 +14077,36 @@
       <c r="H131">
         <v>20.95</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="shared" si="7"/>
+        <v>26.399090909090908</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="8"/>
+        <v>2.8145454545454545</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="9"/>
+        <v>64.987272727272739</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="10"/>
+        <v>8.1581818181818182</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="12"/>
+        <v>110.1</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="13"/>
+        <v>17.540909090909089</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7388,8 +14131,36 @@
       <c r="H132">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="shared" si="7"/>
+        <v>26.192727272727268</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="8"/>
+        <v>2.2954545454545454</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="9"/>
+        <v>67.98</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="10"/>
+        <v>6.2127272727272729</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="12"/>
+        <v>108.73454545454545</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="13"/>
+        <v>18.584545454545456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7414,8 +14185,36 @@
       <c r="H133">
         <v>19.68</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="shared" si="7"/>
+        <v>25.84363636363636</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="8"/>
+        <v>1.7945454545454544</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="9"/>
+        <v>70.536363636363646</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="10"/>
+        <v>4.6490909090909094</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="12"/>
+        <v>107.58181818181819</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="13"/>
+        <v>19.594545454545454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7440,8 +14239,36 @@
       <c r="H134">
         <v>18.21</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="shared" si="7"/>
+        <v>25.779999999999998</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="8"/>
+        <v>1.3118181818181818</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="9"/>
+        <v>72.959090909090904</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="10"/>
+        <v>3.14</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="12"/>
+        <v>107.19909090909091</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="13"/>
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7466,8 +14293,36 @@
       <c r="H135">
         <v>20.74</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="shared" si="7"/>
+        <v>25.579090909090908</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="8"/>
+        <v>0.83818181818181803</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="9"/>
+        <v>75.372727272727261</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="10"/>
+        <v>1.5199999999999998</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="12"/>
+        <v>106.81636363636362</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="13"/>
+        <v>19.873636363636368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7492,8 +14347,36 @@
       <c r="H136">
         <v>21.14</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="7"/>
+        <v>25.34181818181818</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="8"/>
+        <v>0.38272727272727275</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="9"/>
+        <v>77.55</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="12"/>
+        <v>106.45181818181818</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="13"/>
+        <v>20.273636363636367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7518,8 +14401,36 @@
       <c r="H137">
         <v>20.94</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f t="shared" si="7"/>
+        <v>25.122727272727275</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="9"/>
+        <v>77.970909090909103</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="12"/>
+        <v>106.1781818181818</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="13"/>
+        <v>20.728181818181824</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7544,8 +14455,36 @@
       <c r="H138">
         <v>20.37</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f t="shared" si="7"/>
+        <v>24.612727272727273</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="9"/>
+        <v>78.3809090909091</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="12"/>
+        <v>106.33999999999997</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="13"/>
+        <v>20.666363636363641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7570,8 +14509,36 @@
       <c r="H139">
         <v>20.170000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f t="shared" si="7"/>
+        <v>24.189090909090911</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="9"/>
+        <v>78.750000000000014</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="12"/>
+        <v>106.50181818181817</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="13"/>
+        <v>20.559090909090912</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7596,8 +14563,36 @@
       <c r="H140">
         <v>20.47</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f t="shared" si="7"/>
+        <v>23.756363636363634</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="9"/>
+        <v>79.13727272727273</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="12"/>
+        <v>106.69999999999999</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="13"/>
+        <v>20.406363636363636</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7622,8 +14617,36 @@
       <c r="H141">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f t="shared" ref="I141:I156" si="14">AVERAGE(B131:B141)</f>
+        <v>23.323636363636364</v>
+      </c>
+      <c r="J141">
+        <f t="shared" ref="J141:J156" si="15">AVERAGE(C131:C141)</f>
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:K156" si="16">AVERAGE(D131:D141)</f>
+        <v>79.375454545454559</v>
+      </c>
+      <c r="L141">
+        <f t="shared" ref="L141:L156" si="17">AVERAGE(E131:E141)</f>
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <f t="shared" ref="M141:M156" si="18">AVERAGE(F131:F141)</f>
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" ref="N141:N156" si="19">AVERAGE(G131:G141)</f>
+        <v>107.04454545454546</v>
+      </c>
+      <c r="O141">
+        <f t="shared" ref="O141:O156" si="20">AVERAGE(H131:H141)</f>
+        <v>20.256363636363634</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7648,8 +14671,36 @@
       <c r="H142">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f t="shared" si="14"/>
+        <v>22.381818181818179</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="16"/>
+        <v>79.627272727272739</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="19"/>
+        <v>107.22090909090907</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="20"/>
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7674,8 +14725,36 @@
       <c r="H143">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f t="shared" si="14"/>
+        <v>21.594545454545454</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="16"/>
+        <v>79.797272727272741</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="19"/>
+        <v>107.39727272727272</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="20"/>
+        <v>21.210909090909091</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7700,8 +14779,36 @@
       <c r="H144">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f t="shared" si="14"/>
+        <v>20.986363636363635</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="16"/>
+        <v>79.967272727272743</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="19"/>
+        <v>107.36090909090908</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="20"/>
+        <v>21.685454545454547</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7726,8 +14833,36 @@
       <c r="H145">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f t="shared" si="14"/>
+        <v>20.101818181818182</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="16"/>
+        <v>80.434545454545457</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="19"/>
+        <v>107.31545454545454</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="20"/>
+        <v>22.148181818181818</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7752,8 +14887,36 @@
       <c r="H146">
         <v>28.59</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f t="shared" si="14"/>
+        <v>19.304545454545455</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="16"/>
+        <v>80.572727272727263</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="19"/>
+        <v>107.2609090909091</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="20"/>
+        <v>22.861818181818183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7778,8 +14941,36 @@
       <c r="H147">
         <v>29.49</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f t="shared" si="14"/>
+        <v>18.525454545454547</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="16"/>
+        <v>80.647272727272735</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="19"/>
+        <v>107.20636363636363</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="20"/>
+        <v>23.620909090909091</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7804,8 +14995,36 @@
       <c r="H148">
         <v>23.09</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f t="shared" si="14"/>
+        <v>17.737272727272725</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="16"/>
+        <v>81.312727272727273</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="19"/>
+        <v>107.13363636363637</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="20"/>
+        <v>23.816363636363636</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7830,8 +15049,36 @@
       <c r="H149">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f t="shared" si="14"/>
+        <v>17.197272727272725</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="16"/>
+        <v>81.964545454545458</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="19"/>
+        <v>106.85818181818182</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="20"/>
+        <v>23.980000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7856,8 +15103,36 @@
       <c r="H150">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f t="shared" si="14"/>
+        <v>16.528181818181817</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="16"/>
+        <v>82.623636363636365</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="19"/>
+        <v>106.73818181818183</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="20"/>
+        <v>24.110000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7882,8 +15157,36 @@
       <c r="H151">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f t="shared" si="14"/>
+        <v>15.85</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="16"/>
+        <v>83.291818181818186</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="19"/>
+        <v>106.71818181818183</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="20"/>
+        <v>24.139999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7908,8 +15211,36 @@
       <c r="H152">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f t="shared" si="14"/>
+        <v>15.07181818181818</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="16"/>
+        <v>83.586363636363629</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="19"/>
+        <v>107.13818181818182</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="20"/>
+        <v>24.203636363636363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7934,8 +15265,36 @@
       <c r="H153">
         <v>20.03</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f t="shared" si="14"/>
+        <v>14.924545454545454</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="16"/>
+        <v>83.921818181818168</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="19"/>
+        <v>107.54727272727273</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="20"/>
+        <v>23.606363636363632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7960,8 +15319,36 @@
       <c r="H154">
         <v>19.46</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f t="shared" si="14"/>
+        <v>14.710909090909093</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="16"/>
+        <v>84.248181818181806</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="19"/>
+        <v>107.94727272727273</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="20"/>
+        <v>23.093636363636367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7986,8 +15373,36 @@
       <c r="H155">
         <v>17.46</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f t="shared" si="14"/>
+        <v>14.433636363636362</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="16"/>
+        <v>84.801818181818177</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="19"/>
+        <v>108.34727272727274</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="20"/>
+        <v>22.417272727272731</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8011,6 +15426,34 @@
       </c>
       <c r="H156">
         <v>17.260000000000002</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="14"/>
+        <v>14.138181818181819</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="16"/>
+        <v>85.228181818181824</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="19"/>
+        <v>108.76545454545455</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="20"/>
+        <v>21.868181818181821</v>
       </c>
     </row>
   </sheetData>
